--- a/excel/mlp3_train_test.xlsx
+++ b/excel/mlp3_train_test.xlsx
@@ -14,10 +14,7 @@
   <sheets>
     <sheet name="mlp3_train_test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2564,11 +2561,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="915539760"/>
-        <c:axId val="915540320"/>
+        <c:axId val="467999712"/>
+        <c:axId val="468000272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="915539760"/>
+        <c:axId val="467999712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2696,13 +2693,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="915540320"/>
+        <c:crossAx val="468000272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="915540320"/>
+        <c:axId val="468000272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="24"/>
@@ -2831,7 +2828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="915539760"/>
+        <c:crossAx val="467999712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
@@ -3507,1431 +3504,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="exp3_train_test"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="E1" t="str">
-            <v>Test error</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Training error</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>Validation error</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="D2">
-            <v>1</v>
-          </cell>
-          <cell r="E2">
-            <v>15.074999630499999</v>
-          </cell>
-          <cell r="F2">
-            <v>13.560006022500001</v>
-          </cell>
-          <cell r="G2">
-            <v>15.225000679500001</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>2</v>
-          </cell>
-          <cell r="E3">
-            <v>13.875000178800001</v>
-          </cell>
-          <cell r="F3">
-            <v>11.8600048125</v>
-          </cell>
-          <cell r="G3">
-            <v>14.4499987364</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>3</v>
-          </cell>
-          <cell r="E4">
-            <v>12.775000929800001</v>
-          </cell>
-          <cell r="F4">
-            <v>10.709998756600001</v>
-          </cell>
-          <cell r="G4">
-            <v>13.7749999762</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>4</v>
-          </cell>
-          <cell r="E5">
-            <v>11.699999123800001</v>
-          </cell>
-          <cell r="F5">
-            <v>9.2650003731300004</v>
-          </cell>
-          <cell r="G5">
-            <v>12.624998390700002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>5</v>
-          </cell>
-          <cell r="E6">
-            <v>11.299999058199999</v>
-          </cell>
-          <cell r="F6">
-            <v>8.4999993443499999</v>
-          </cell>
-          <cell r="G6">
-            <v>12.250001728499999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>6</v>
-          </cell>
-          <cell r="E7">
-            <v>11.0749989748</v>
-          </cell>
-          <cell r="F7">
-            <v>8.1349983811400008</v>
-          </cell>
-          <cell r="G7">
-            <v>11.850000172900002</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>7</v>
-          </cell>
-          <cell r="E8">
-            <v>11.125000566199999</v>
-          </cell>
-          <cell r="F8">
-            <v>7.9399980604600007</v>
-          </cell>
-          <cell r="G8">
-            <v>11.699999123800001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>8</v>
-          </cell>
-          <cell r="E9">
-            <v>10.925000905999999</v>
-          </cell>
-          <cell r="F9">
-            <v>7.3550000786800007</v>
-          </cell>
-          <cell r="G9">
-            <v>11.475000530499999</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>9</v>
-          </cell>
-          <cell r="E10">
-            <v>10.6500007212</v>
-          </cell>
-          <cell r="F10">
-            <v>6.7949987947899997</v>
-          </cell>
-          <cell r="G10">
-            <v>11.100000143100001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>10</v>
-          </cell>
-          <cell r="E11">
-            <v>10.424999892700001</v>
-          </cell>
-          <cell r="F11">
-            <v>6.4300008118199994</v>
-          </cell>
-          <cell r="G11">
-            <v>10.925000905999999</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>11</v>
-          </cell>
-          <cell r="E12">
-            <v>9.9749989807600006</v>
-          </cell>
-          <cell r="F12">
-            <v>5.8800004422700001</v>
-          </cell>
-          <cell r="G12">
-            <v>10.5249993503</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>12</v>
-          </cell>
-          <cell r="E13">
-            <v>9.5250003039799989</v>
-          </cell>
-          <cell r="F13">
-            <v>5.3400024771699997</v>
-          </cell>
-          <cell r="G13">
-            <v>9.8499990999700007</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>13</v>
-          </cell>
-          <cell r="E14">
-            <v>9.2249996960200011</v>
-          </cell>
-          <cell r="F14">
-            <v>4.8600029200300003</v>
-          </cell>
-          <cell r="G14">
-            <v>9.349999576810001</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>14</v>
-          </cell>
-          <cell r="E15">
-            <v>8.8500000536400005</v>
-          </cell>
-          <cell r="F15">
-            <v>4.4500019401299999</v>
-          </cell>
-          <cell r="G15">
-            <v>8.9250005781699997</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>15</v>
-          </cell>
-          <cell r="E16">
-            <v>8.7249994278000003</v>
-          </cell>
-          <cell r="F16">
-            <v>4.1600022464999995</v>
-          </cell>
-          <cell r="G16">
-            <v>8.825000375510001</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>16</v>
-          </cell>
-          <cell r="E17">
-            <v>8.5749991238099987</v>
-          </cell>
-          <cell r="F17">
-            <v>3.86500395834</v>
-          </cell>
-          <cell r="G17">
-            <v>8.5500001907299996</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>17</v>
-          </cell>
-          <cell r="E18">
-            <v>8.5249990224799994</v>
-          </cell>
-          <cell r="F18">
-            <v>3.5850007087</v>
-          </cell>
-          <cell r="G18">
-            <v>8.5500001907299996</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>18</v>
-          </cell>
-          <cell r="E19">
-            <v>8.2999996840999994</v>
-          </cell>
-          <cell r="F19">
-            <v>3.4150023013399999</v>
-          </cell>
-          <cell r="G19">
-            <v>8.4249995648899993</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>19</v>
-          </cell>
-          <cell r="E20">
-            <v>8.2250006496899992</v>
-          </cell>
-          <cell r="F20">
-            <v>3.2150026410800003</v>
-          </cell>
-          <cell r="G20">
-            <v>8.3499990403699993</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>20</v>
-          </cell>
-          <cell r="E21">
-            <v>8.2500003278299996</v>
-          </cell>
-          <cell r="F21">
-            <v>3.0700026080000002</v>
-          </cell>
-          <cell r="G21">
-            <v>8.37499946356</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>21</v>
-          </cell>
-          <cell r="E22">
-            <v>8.2000002265000003</v>
-          </cell>
-          <cell r="F22">
-            <v>2.9200026765500002</v>
-          </cell>
-          <cell r="G22">
-            <v>8.29999893904</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>22</v>
-          </cell>
-          <cell r="E23">
-            <v>8.199999481439999</v>
-          </cell>
-          <cell r="F23">
-            <v>2.8400022536500003</v>
-          </cell>
-          <cell r="G23">
-            <v>8.1749998033000004</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>23</v>
-          </cell>
-          <cell r="E24">
-            <v>8.1749998033000004</v>
-          </cell>
-          <cell r="F24">
-            <v>2.7550021186500002</v>
-          </cell>
-          <cell r="G24">
-            <v>8.2249991595700003</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25">
-            <v>24</v>
-          </cell>
-          <cell r="E25">
-            <v>8.0499984324000007</v>
-          </cell>
-          <cell r="F25">
-            <v>2.5750026106800004</v>
-          </cell>
-          <cell r="G25">
-            <v>8.0749996006499991</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>25</v>
-          </cell>
-          <cell r="E26">
-            <v>7.9499989748000006</v>
-          </cell>
-          <cell r="F26">
-            <v>2.370002307</v>
-          </cell>
-          <cell r="G26">
-            <v>7.7749989926800005</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27">
-            <v>26</v>
-          </cell>
-          <cell r="E27">
-            <v>7.7999994158700003</v>
-          </cell>
-          <cell r="F27">
-            <v>2.1350011229499999</v>
-          </cell>
-          <cell r="G27">
-            <v>7.5499989092399993</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28">
-            <v>27</v>
-          </cell>
-          <cell r="E28">
-            <v>7.5249999761600002</v>
-          </cell>
-          <cell r="F28">
-            <v>1.9300000742100001</v>
-          </cell>
-          <cell r="G28">
-            <v>7.3499992489800006</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29">
-            <v>28</v>
-          </cell>
-          <cell r="E29">
-            <v>7.2999998927100007</v>
-          </cell>
-          <cell r="F29">
-            <v>1.6949992626900001</v>
-          </cell>
-          <cell r="G29">
-            <v>7.0499993860699997</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30">
-            <v>29</v>
-          </cell>
-          <cell r="E30">
-            <v>6.9999992847399994</v>
-          </cell>
-          <cell r="F30">
-            <v>1.4899987727399999</v>
-          </cell>
-          <cell r="G30">
-            <v>6.8999998271499994</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>30</v>
-          </cell>
-          <cell r="E31">
-            <v>6.8499989807599997</v>
-          </cell>
-          <cell r="F31">
-            <v>1.3299989514100001</v>
-          </cell>
-          <cell r="G31">
-            <v>6.6249996423699997</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32">
-            <v>31</v>
-          </cell>
-          <cell r="E32">
-            <v>6.7999996244899998</v>
-          </cell>
-          <cell r="F32">
-            <v>1.14999916404</v>
-          </cell>
-          <cell r="G32">
-            <v>6.6499993205100001</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33">
-            <v>32</v>
-          </cell>
-          <cell r="E33">
-            <v>6.5999992191799999</v>
-          </cell>
-          <cell r="F33">
-            <v>0.95999911427499995</v>
-          </cell>
-          <cell r="G33">
-            <v>6.3749998807899999</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34">
-            <v>33</v>
-          </cell>
-          <cell r="E34">
-            <v>6.5249986946600007</v>
-          </cell>
-          <cell r="F34">
-            <v>0.80499947071099998</v>
-          </cell>
-          <cell r="G34">
-            <v>6.1249997466800004</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35">
-            <v>34</v>
-          </cell>
-          <cell r="E35">
-            <v>6.3749991357300004</v>
-          </cell>
-          <cell r="F35">
-            <v>0.65499958582200002</v>
-          </cell>
-          <cell r="G35">
-            <v>5.7999994605799996</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36">
-            <v>35</v>
-          </cell>
-          <cell r="E36">
-            <v>6.3749991357300004</v>
-          </cell>
-          <cell r="F36">
-            <v>0.539999594912</v>
-          </cell>
-          <cell r="G36">
-            <v>5.6999992579200001</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37">
-            <v>36</v>
-          </cell>
-          <cell r="E37">
-            <v>6.3249997794599997</v>
-          </cell>
-          <cell r="F37">
-            <v>0.44999979436400001</v>
-          </cell>
-          <cell r="G37">
-            <v>5.5999990552700005</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38">
-            <v>37</v>
-          </cell>
-          <cell r="E38">
-            <v>6.2249988317499998</v>
-          </cell>
-          <cell r="F38">
-            <v>0.34999987110499997</v>
-          </cell>
-          <cell r="G38">
-            <v>5.5499989539400003</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39">
-            <v>38</v>
-          </cell>
-          <cell r="E39">
-            <v>6.1749991029499993</v>
-          </cell>
-          <cell r="F39">
-            <v>0.26999998372</v>
-          </cell>
-          <cell r="G39">
-            <v>5.4749991744799997</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="D40">
-            <v>39</v>
-          </cell>
-          <cell r="E40">
-            <v>6.0499984770999999</v>
-          </cell>
-          <cell r="F40">
-            <v>0.22999998182099998</v>
-          </cell>
-          <cell r="G40">
-            <v>5.39999939501</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="D41">
-            <v>40</v>
-          </cell>
-          <cell r="E41">
-            <v>5.8999989181800006</v>
-          </cell>
-          <cell r="F41">
-            <v>0.18500000005600001</v>
-          </cell>
-          <cell r="G41">
-            <v>5.2249994128899999</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="D42">
-            <v>41</v>
-          </cell>
-          <cell r="E42">
-            <v>5.8499988168500003</v>
-          </cell>
-          <cell r="F42">
-            <v>0.15499998116899999</v>
-          </cell>
-          <cell r="G42">
-            <v>5.1499996334299993</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="D43">
-            <v>42</v>
-          </cell>
-          <cell r="E43">
-            <v>5.7749990373799998</v>
-          </cell>
-          <cell r="F43">
-            <v>0.11999998241700001</v>
-          </cell>
-          <cell r="G43">
-            <v>5.1249995827700001</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="D44">
-            <v>43</v>
-          </cell>
-          <cell r="E44">
-            <v>5.6999988853900003</v>
-          </cell>
-          <cell r="F44">
-            <v>9.4999978318799999E-2</v>
-          </cell>
-          <cell r="G44">
-            <v>5.1499996334299993</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45">
-            <v>44</v>
-          </cell>
-          <cell r="E45">
-            <v>5.7249989360600004</v>
-          </cell>
-          <cell r="F45">
-            <v>8.4999983664600001E-2</v>
-          </cell>
-          <cell r="G45">
-            <v>5.1749993115699997</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46">
-            <v>45</v>
-          </cell>
-          <cell r="E46">
-            <v>5.7249989360600004</v>
-          </cell>
-          <cell r="F46">
-            <v>6.9999991683299997E-2</v>
-          </cell>
-          <cell r="G46">
-            <v>5.1249995827700001</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47">
-            <v>46</v>
-          </cell>
-          <cell r="E47">
-            <v>5.6999988853900003</v>
-          </cell>
-          <cell r="F47">
-            <v>5.9999997029100006E-2</v>
-          </cell>
-          <cell r="G47">
-            <v>5.0999999046300006</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="D48">
-            <v>47</v>
-          </cell>
-          <cell r="E48">
-            <v>5.6499987840700001</v>
-          </cell>
-          <cell r="F48">
-            <v>5.4999999702000001E-2</v>
-          </cell>
-          <cell r="G48">
-            <v>4.9749996513100001</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="D49">
-            <v>48</v>
-          </cell>
-          <cell r="E49">
-            <v>5.5999990552700005</v>
-          </cell>
-          <cell r="F49">
-            <v>4.99999965541E-2</v>
-          </cell>
-          <cell r="G49">
-            <v>4.9749996513100001</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="D50">
-            <v>49</v>
-          </cell>
-          <cell r="E50">
-            <v>5.5749993771300002</v>
-          </cell>
-          <cell r="F50">
-            <v>3.9999998989500005E-2</v>
-          </cell>
-          <cell r="G50">
-            <v>4.9749996513100001</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="D51">
-            <v>50</v>
-          </cell>
-          <cell r="E51">
-            <v>5.5249992757999999</v>
-          </cell>
-          <cell r="F51">
-            <v>1.9999999494800001E-2</v>
-          </cell>
-          <cell r="G51">
-            <v>4.9749996513100001</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="D52">
-            <v>51</v>
-          </cell>
-          <cell r="E52">
-            <v>5.5499989539400003</v>
-          </cell>
-          <cell r="F52">
-            <v>1.9999999494800001E-2</v>
-          </cell>
-          <cell r="G52">
-            <v>4.9999997019800002</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="D53">
-            <v>52</v>
-          </cell>
-          <cell r="E53">
-            <v>5.4999992251399998</v>
-          </cell>
-          <cell r="F53">
-            <v>9.9999997473800006E-3</v>
-          </cell>
-          <cell r="G53">
-            <v>4.9749992787799995</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="D54">
-            <v>53</v>
-          </cell>
-          <cell r="E54">
-            <v>5.4999992251399998</v>
-          </cell>
-          <cell r="F54">
-            <v>4.9999998736900003E-3</v>
-          </cell>
-          <cell r="G54">
-            <v>4.9499992281200003</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="D55">
-            <v>54</v>
-          </cell>
-          <cell r="E55">
-            <v>5.4999992251399998</v>
-          </cell>
-          <cell r="F55">
-            <v>4.9999998736900003E-3</v>
-          </cell>
-          <cell r="G55">
-            <v>4.9249991774600002</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="D56">
-            <v>55</v>
-          </cell>
-          <cell r="E56">
-            <v>5.5499989539400003</v>
-          </cell>
-          <cell r="F56">
-            <v>4.9999998736900003E-3</v>
-          </cell>
-          <cell r="G56">
-            <v>4.9249991774600002</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="D57">
-            <v>56</v>
-          </cell>
-          <cell r="E57">
-            <v>5.5499989539400003</v>
-          </cell>
-          <cell r="F57">
-            <v>4.9999998736900003E-3</v>
-          </cell>
-          <cell r="G57">
-            <v>4.89999912679</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="D58">
-            <v>57</v>
-          </cell>
-          <cell r="E58">
-            <v>5.5499989539400003</v>
-          </cell>
-          <cell r="F58">
-            <v>4.9999998736900003E-3</v>
-          </cell>
-          <cell r="G58">
-            <v>4.8499990254599998</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="D59">
-            <v>58</v>
-          </cell>
-          <cell r="E59">
-            <v>5.5749993771300002</v>
-          </cell>
-          <cell r="F59">
-            <v>4.9999998736900003E-3</v>
-          </cell>
-          <cell r="G59">
-            <v>4.8499990254599998</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60">
-            <v>59</v>
-          </cell>
-          <cell r="E60">
-            <v>5.5749993771300002</v>
-          </cell>
-          <cell r="F60">
-            <v>4.9999998736900003E-3</v>
-          </cell>
-          <cell r="G60">
-            <v>4.8249989748000006</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="D61">
-            <v>60</v>
-          </cell>
-          <cell r="E61">
-            <v>5.4999995976700005</v>
-          </cell>
-          <cell r="F61">
-            <v>0</v>
-          </cell>
-          <cell r="G61">
-            <v>4.8249989748000006</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="D62">
-            <v>61</v>
-          </cell>
-          <cell r="E62">
-            <v>5.4999995976700005</v>
-          </cell>
-          <cell r="F62">
-            <v>0</v>
-          </cell>
-          <cell r="G62">
-            <v>4.8249989748000006</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="D63">
-            <v>62</v>
-          </cell>
-          <cell r="E63">
-            <v>5.4999995976700005</v>
-          </cell>
-          <cell r="F63">
-            <v>0</v>
-          </cell>
-          <cell r="G63">
-            <v>4.8249989748000006</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="D64">
-            <v>63</v>
-          </cell>
-          <cell r="E64">
-            <v>5.4999995976700005</v>
-          </cell>
-          <cell r="F64">
-            <v>0</v>
-          </cell>
-          <cell r="G64">
-            <v>4.8249989748000006</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="D65">
-            <v>64</v>
-          </cell>
-          <cell r="E65">
-            <v>5.4749991744799997</v>
-          </cell>
-          <cell r="F65">
-            <v>0</v>
-          </cell>
-          <cell r="G65">
-            <v>4.7749988734700004</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="D66">
-            <v>65</v>
-          </cell>
-          <cell r="E66">
-            <v>5.3749989718200002</v>
-          </cell>
-          <cell r="F66">
-            <v>0</v>
-          </cell>
-          <cell r="G66">
-            <v>4.7249987721400002</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="D67">
-            <v>66</v>
-          </cell>
-          <cell r="E67">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="F67">
-            <v>0</v>
-          </cell>
-          <cell r="G67">
-            <v>4.6999987214800001</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="D68">
-            <v>67</v>
-          </cell>
-          <cell r="E68">
-            <v>5.3499992936799998</v>
-          </cell>
-          <cell r="F68">
-            <v>0</v>
-          </cell>
-          <cell r="G68">
-            <v>4.67499867082</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="D69">
-            <v>68</v>
-          </cell>
-          <cell r="E69">
-            <v>5.3499992936799998</v>
-          </cell>
-          <cell r="F69">
-            <v>0</v>
-          </cell>
-          <cell r="G69">
-            <v>4.67499867082</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="D70">
-            <v>69</v>
-          </cell>
-          <cell r="E70">
-            <v>5.3499992936799998</v>
-          </cell>
-          <cell r="F70">
-            <v>0</v>
-          </cell>
-          <cell r="G70">
-            <v>4.67499867082</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="D71">
-            <v>70</v>
-          </cell>
-          <cell r="E71">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="F71">
-            <v>0</v>
-          </cell>
-          <cell r="G71">
-            <v>4.67499867082</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="D72">
-            <v>71</v>
-          </cell>
-          <cell r="E72">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="F72">
-            <v>0</v>
-          </cell>
-          <cell r="G72">
-            <v>4.67499867082</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="D73">
-            <v>72</v>
-          </cell>
-          <cell r="E73">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="F73">
-            <v>0</v>
-          </cell>
-          <cell r="G73">
-            <v>4.6999987214800001</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="D74">
-            <v>73</v>
-          </cell>
-          <cell r="E74">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="F74">
-            <v>0</v>
-          </cell>
-          <cell r="G74">
-            <v>4.6999987214800001</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="D75">
-            <v>74</v>
-          </cell>
-          <cell r="E75">
-            <v>5.3500000387400002</v>
-          </cell>
-          <cell r="F75">
-            <v>0</v>
-          </cell>
-          <cell r="G75">
-            <v>4.6999987214800001</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="D76">
-            <v>75</v>
-          </cell>
-          <cell r="E76">
-            <v>5.3500000387400002</v>
-          </cell>
-          <cell r="F76">
-            <v>0</v>
-          </cell>
-          <cell r="G76">
-            <v>4.6999987214800001</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="D77">
-            <v>76</v>
-          </cell>
-          <cell r="E77">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="F77">
-            <v>0</v>
-          </cell>
-          <cell r="G77">
-            <v>4.67499867082</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="D78">
-            <v>77</v>
-          </cell>
-          <cell r="E78">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="F78">
-            <v>0</v>
-          </cell>
-          <cell r="G78">
-            <v>4.6499986201499999</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="D79">
-            <v>78</v>
-          </cell>
-          <cell r="E79">
-            <v>5.3500000387400002</v>
-          </cell>
-          <cell r="F79">
-            <v>0</v>
-          </cell>
-          <cell r="G79">
-            <v>4.6499986201499999</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="D80">
-            <v>79</v>
-          </cell>
-          <cell r="E80">
-            <v>5.3500000387400002</v>
-          </cell>
-          <cell r="F80">
-            <v>0</v>
-          </cell>
-          <cell r="G80">
-            <v>4.6499989926800005</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="D81">
-            <v>80</v>
-          </cell>
-          <cell r="E81">
-            <v>5.3249996155500003</v>
-          </cell>
-          <cell r="F81">
-            <v>0</v>
-          </cell>
-          <cell r="G81">
-            <v>4.6999990940100007</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="D82">
-            <v>81</v>
-          </cell>
-          <cell r="E82">
-            <v>5.3249996155500003</v>
-          </cell>
-          <cell r="F82">
-            <v>0</v>
-          </cell>
-          <cell r="G82">
-            <v>4.6999990940100007</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="D83">
-            <v>82</v>
-          </cell>
-          <cell r="E83">
-            <v>5.3249996155500003</v>
-          </cell>
-          <cell r="F83">
-            <v>0</v>
-          </cell>
-          <cell r="G83">
-            <v>4.6999990940100007</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="D84">
-            <v>83</v>
-          </cell>
-          <cell r="E84">
-            <v>5.3249996155500003</v>
-          </cell>
-          <cell r="F84">
-            <v>0</v>
-          </cell>
-          <cell r="G84">
-            <v>4.6999990940100007</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="D85">
-            <v>84</v>
-          </cell>
-          <cell r="E85">
-            <v>5.29999993742</v>
-          </cell>
-          <cell r="F85">
-            <v>0</v>
-          </cell>
-          <cell r="G85">
-            <v>4.6749990433499997</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="D86">
-            <v>85</v>
-          </cell>
-          <cell r="E86">
-            <v>5.2749998867499999</v>
-          </cell>
-          <cell r="F86">
-            <v>0</v>
-          </cell>
-          <cell r="G86">
-            <v>4.6499989926800005</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="D87">
-            <v>86</v>
-          </cell>
-          <cell r="E87">
-            <v>5.2499998360900006</v>
-          </cell>
-          <cell r="F87">
-            <v>0</v>
-          </cell>
-          <cell r="G87">
-            <v>4.6499989926800005</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="D88">
-            <v>87</v>
-          </cell>
-          <cell r="E88">
-            <v>5.2499998360900006</v>
-          </cell>
-          <cell r="F88">
-            <v>0</v>
-          </cell>
-          <cell r="G88">
-            <v>4.6749990433499997</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="D89">
-            <v>88</v>
-          </cell>
-          <cell r="E89">
-            <v>5.2499998360900006</v>
-          </cell>
-          <cell r="F89">
-            <v>0</v>
-          </cell>
-          <cell r="G89">
-            <v>4.6749990433499997</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="D90">
-            <v>89</v>
-          </cell>
-          <cell r="E90">
-            <v>5.2499998360900006</v>
-          </cell>
-          <cell r="F90">
-            <v>0</v>
-          </cell>
-          <cell r="G90">
-            <v>4.6749990433499997</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="D91">
-            <v>90</v>
-          </cell>
-          <cell r="E91">
-            <v>5.2499998360900006</v>
-          </cell>
-          <cell r="F91">
-            <v>0</v>
-          </cell>
-          <cell r="G91">
-            <v>4.6999987214800001</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="D92">
-            <v>91</v>
-          </cell>
-          <cell r="E92">
-            <v>5.2749998867499999</v>
-          </cell>
-          <cell r="F92">
-            <v>0</v>
-          </cell>
-          <cell r="G92">
-            <v>4.6999987214800001</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="D93">
-            <v>92</v>
-          </cell>
-          <cell r="E93">
-            <v>5.2749998867499999</v>
-          </cell>
-          <cell r="F93">
-            <v>0</v>
-          </cell>
-          <cell r="G93">
-            <v>4.6999987214800001</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="D94">
-            <v>93</v>
-          </cell>
-          <cell r="E94">
-            <v>5.2749998867499999</v>
-          </cell>
-          <cell r="F94">
-            <v>0</v>
-          </cell>
-          <cell r="G94">
-            <v>4.6999987214800001</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="D95">
-            <v>94</v>
-          </cell>
-          <cell r="E95">
-            <v>5.2749998867499999</v>
-          </cell>
-          <cell r="F95">
-            <v>0</v>
-          </cell>
-          <cell r="G95">
-            <v>4.6999987214800001</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="D96">
-            <v>95</v>
-          </cell>
-          <cell r="E96">
-            <v>5.2749998867499999</v>
-          </cell>
-          <cell r="F96">
-            <v>0</v>
-          </cell>
-          <cell r="G96">
-            <v>4.6999987214800001</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="D97">
-            <v>96</v>
-          </cell>
-          <cell r="E97">
-            <v>5.2749998867499999</v>
-          </cell>
-          <cell r="F97">
-            <v>0</v>
-          </cell>
-          <cell r="G97">
-            <v>4.6749990433499997</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="D98">
-            <v>97</v>
-          </cell>
-          <cell r="E98">
-            <v>5.2749998867499999</v>
-          </cell>
-          <cell r="F98">
-            <v>0</v>
-          </cell>
-          <cell r="G98">
-            <v>4.6749990433499997</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="D99">
-            <v>98</v>
-          </cell>
-          <cell r="E99">
-            <v>5.2500002086200004</v>
-          </cell>
-          <cell r="F99">
-            <v>0</v>
-          </cell>
-          <cell r="G99">
-            <v>4.6749990433499997</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="D100">
-            <v>99</v>
-          </cell>
-          <cell r="E100">
-            <v>5.2500002086200004</v>
-          </cell>
-          <cell r="F100">
-            <v>0</v>
-          </cell>
-          <cell r="G100">
-            <v>4.6749990433499997</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="D101">
-            <v>100</v>
-          </cell>
-          <cell r="E101">
-            <v>5.2500002086200004</v>
-          </cell>
-          <cell r="F101">
-            <v>0</v>
-          </cell>
-          <cell r="G101">
-            <v>4.6499989926800005</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5198,7 +3770,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+      <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
